--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.15</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007614</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007615</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精锐股票C</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.69</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>德邦量化新锐股票(LOF) A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>007614</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>德邦民裕进取量化精锐股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.31</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>007615</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>德邦民裕进取量化精锐股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -744,15 +834,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>97.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0226</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1153,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,17 +1165,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.45</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1200,14 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.17</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1216,13 +1281,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.96</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.45</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.17</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2103,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2114,17 +2115,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2134,14 +2155,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.49</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2150,14 +2193,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.96</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2166,14 +2231,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.45</v>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2182,14 +2269,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.17</v>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2198,13 +2307,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,319 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1737</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0275</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007614</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007615</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精锐股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -778,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -829,36 +639,530 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7251</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3278</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>166024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1690</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +1176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +1197,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -933,22 +1237,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.90</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0226</t>
+          <t>1.2360</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -961,32 +1265,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>43.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1825</t>
+          <t>1.2360</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -999,36 +1303,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1730</t>
+          <t>0.7053</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +1341,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166020</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>11.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>73.51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0470</t>
+          <t>0.6023</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1075,36 +1379,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001891</t>
+          <t>008269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
+          <t>大成睿享混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>17.69</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>65.25</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.5378</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1113,36 +1417,340 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.3118</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1516,7 +2124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1537,7 +2145,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1577,22 +2185,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>34.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>1.0226</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1605,32 +2213,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>0.1825</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1643,36 +2251,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7053</t>
+          <t>0.1730</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1681,36 +2289,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6023</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1719,36 +2327,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.25</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5378</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1757,340 +2365,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3118</t>
+          <t>0.0097</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1890</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1653</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1620</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1471</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008270</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成睿享混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>65.25</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0872</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0844</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.63</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>60.15</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2125,7 +2429,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2155,530 +2459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166005</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>97.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3236</t>
+          <t>0.1690</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7251</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6373</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2245</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1721</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1617</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1556</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0809</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2692,128 +2502,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.96</v>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.49</v>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007614</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.24</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007615</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精锐股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>5.49</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.96</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.17</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>42.56</t>
+          <t>26.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3236</t>
+          <t>1.1127</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>19.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7251</t>
+          <t>0.7075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.56</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6373</t>
+          <t>0.3419</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3278</t>
+          <t>0.0746</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -791,378 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2245</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1721</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1617</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1556</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0809</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1237,22 +912,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>1.3236</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1265,32 +940,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>0.7251</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1303,36 +978,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7053</t>
+          <t>0.6373</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1341,36 +1016,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6023</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1379,32 +1054,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.25</t>
+          <t>64.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5378</t>
+          <t>0.2245</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1417,36 +1092,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3118</t>
+          <t>0.1721</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1455,36 +1130,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011834</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1890</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1493,36 +1168,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1653</t>
+          <t>0.1556</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1531,36 +1206,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013463</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成致远优势一年持有期混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1620</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1569,36 +1244,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>72.16</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1471</t>
+          <t>0.0809</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1607,36 +1282,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>65.25</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1645,36 +1320,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1693,26 +1368,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1731,22 +1406,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1759,6 +1434,594 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2118,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2402,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2496,7 +2759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/600987-航民股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.25</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.96</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>5.49</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.96</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.17</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -838,594 +987,6 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166005</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>42.56</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3236</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>24.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7251</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>090007</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成策略回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.56</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6373</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3278</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>090013</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.45</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2245</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011834</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1721</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1617</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013463</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1556</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005764</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧潜力价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>166020</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0809</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001882</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧价值发现混合 -E</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0221</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001891</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧成长优选回报灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011835</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013464</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成致远优势一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>61.36</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1500,22 +1061,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>42.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>1.3236</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1528,32 +1089,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001882</t>
+          <t>001810</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -E</t>
+          <t>中欧潜力价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.52</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2360</t>
+          <t>0.7251</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1566,36 +1127,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001810</t>
+          <t>090007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合A</t>
+          <t>大成策略回报混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>76.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7053</t>
+          <t>0.6373</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1604,36 +1165,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090007</t>
+          <t>004232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成策略回报混合</t>
+          <t>中欧价值发现混合 -C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.30</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.51</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6023</t>
+          <t>0.3278</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1642,32 +1203,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008269</t>
+          <t>090013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成睿享混合A</t>
+          <t>大成竞争优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.69</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>65.25</t>
+          <t>64.37</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5378</t>
+          <t>0.2245</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1680,36 +1241,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004232</t>
+          <t>011834</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧价值发现混合 -C</t>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3118</t>
+          <t>0.1721</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1718,36 +1279,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011834</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>95.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1890</t>
+          <t>0.1617</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1756,36 +1317,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>013463</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>大成致远优势一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1653</t>
+          <t>0.1556</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1794,36 +1355,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013463</t>
+          <t>005764</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成致远优势一年持有期混合A</t>
+          <t>中欧潜力价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>94.13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1620</t>
+          <t>0.0900</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1832,36 +1393,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>090013</t>
+          <t>166020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成竞争优势混合</t>
+          <t>中欧成长优选回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>72.16</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1471</t>
+          <t>0.0809</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1870,36 +1431,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008270</t>
+          <t>001882</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成睿享混合C</t>
+          <t>中欧价值发现混合 -E</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>65.25</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1908,36 +1469,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005764</t>
+          <t>001891</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧潜力价值灵活配置混合C</t>
+          <t>中欧成长优选回报灵活配置混合E</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>94.02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1956,26 +1517,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>76.43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0146</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1994,22 +1555,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60.15</t>
+          <t>61.36</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2022,6 +1583,594 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2360</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3118</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013463</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013464</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成致远优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2381,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2665,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2759,7 +2908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
